--- a/11-23-25 to 11-29-25 Milwaukee Schedule.xlsx
+++ b/11-23-25 to 11-29-25 Milwaukee Schedule.xlsx
@@ -540,12 +540,28 @@
           <t> </t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Bag 5</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Bags 5-6</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
@@ -567,12 +583,28 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Bag 2</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Bag 1</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>

--- a/11-23-25 to 11-29-25 Milwaukee Schedule.xlsx
+++ b/11-23-25 to 11-29-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y67"/>
+  <dimension ref="A1:Y66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -2081,10 +2081,14 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2116,7 +2120,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2155,7 +2159,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2187,21 +2191,9 @@
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2254,7 +2246,11 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5:45 AM OFFICE LEAVE TIME</t>
+        </is>
+      </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
@@ -2283,7 +2279,7 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>5:45 AM OFFICE LEAVE TIME</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
@@ -2314,7 +2310,7 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
@@ -2345,7 +2341,7 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>HARRY'S MOBIL, BELOIT-SHOPIERE</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
@@ -2376,7 +2372,7 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>HARRY'S MOBIL, BELOIT-SHOPIERE</t>
+          <t>1902 SHOPIERE RD</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
@@ -2407,7 +2403,7 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>1902 SHOPIERE RD</t>
+          <t>https://goo.gl/maps/ENk9ERQQnFMmUtd77</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
@@ -2438,7 +2434,7 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ENk9ERQQnFMmUtd77</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
@@ -2469,7 +2465,7 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
@@ -2500,7 +2496,7 @@
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>HARRY'S CITGO, BELOIT</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
@@ -2531,7 +2527,7 @@
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
         <is>
-          <t>HARRY'S CITGO, BELOIT</t>
+          <t>1888 SHOPIERE RD</t>
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
@@ -2562,7 +2558,7 @@
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
         <is>
-          <t>1888 SHOPIERE RD</t>
+          <t>https://goo.gl/maps/unBzKKpt6UgbiniP6</t>
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
@@ -2591,11 +2587,7 @@
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/unBzKKpt6UgbiniP6</t>
-        </is>
-      </c>
+      <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
@@ -2621,9 +2613,21 @@
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2650,17 +2654,17 @@
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>Wht Camry</t>
         </is>
       </c>
       <c r="H66" t="inlineStr"/>
@@ -2682,45 +2686,6 @@
       <c r="X66" t="inlineStr"/>
       <c r="Y66" t="inlineStr"/>
     </row>
-    <row r="67">
-      <c r="A67" t="inlineStr"/>
-      <c r="B67" t="inlineStr"/>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>Wht Camry</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="inlineStr"/>
-      <c r="T67" t="inlineStr"/>
-      <c r="U67" t="inlineStr"/>
-      <c r="V67" t="inlineStr"/>
-      <c r="W67" t="inlineStr"/>
-      <c r="X67" t="inlineStr"/>
-      <c r="Y67" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
